--- a/Documents/Scrum sheet v1.xlsx
+++ b/Documents/Scrum sheet v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Saxion\Project Arcade\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectArcade\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="113">
   <si>
     <t>Done</t>
   </si>
@@ -42,18 +36,6 @@
     <t>Moodboard</t>
   </si>
   <si>
-    <t>Sketches</t>
-  </si>
-  <si>
-    <t>Concept art</t>
-  </si>
-  <si>
-    <t>Game manual</t>
-  </si>
-  <si>
-    <t>Trailer</t>
-  </si>
-  <si>
     <t>Game Rules</t>
   </si>
   <si>
@@ -69,13 +51,7 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>Avalilable Points</t>
-  </si>
-  <si>
     <t>Concept Art</t>
-  </si>
-  <si>
-    <t>Game Concept Document</t>
   </si>
   <si>
     <t>Brainstorm</t>
@@ -104,18 +80,9 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>Target Group Analysis</t>
-  </si>
-  <si>
-    <t>Mechanics Analysis</t>
-  </si>
-  <si>
     <t>Moodboard Concept</t>
   </si>
   <si>
-    <t>Moodboard Discussion</t>
-  </si>
-  <si>
     <t>Tester</t>
   </si>
   <si>
@@ -137,9 +104,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Game Board</t>
-  </si>
-  <si>
     <t>Presentation</t>
   </si>
   <si>
@@ -165,24 +129,6 @@
   </si>
   <si>
     <t>Game Design Document</t>
-  </si>
-  <si>
-    <t>Game Design Document, Prototypes, functional and assets</t>
-  </si>
-  <si>
-    <t>1.1.9</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Implement</t>
-  </si>
-  <si>
-    <t>Trailer Design / Script</t>
-  </si>
-  <si>
-    <t>Game Testing and Tweaking</t>
   </si>
   <si>
     <t>Burndown Chart</t>
@@ -195,76 +141,10 @@
     <t>Sprint 4</t>
   </si>
   <si>
-    <t>Game Testing</t>
-  </si>
-  <si>
-    <t>Trailer design</t>
-  </si>
-  <si>
     <t>Busy</t>
   </si>
   <si>
-    <t>JAN</t>
-  </si>
-  <si>
-    <t>TLO</t>
-  </si>
-  <si>
     <t>User Story</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Polsihing, Final Build,  and Delivery</t>
-  </si>
-  <si>
-    <t>Game tets</t>
-  </si>
-  <si>
-    <t>Test sheet</t>
-  </si>
-  <si>
-    <t>Playable version(s)</t>
-  </si>
-  <si>
-    <t>Paper Prototype</t>
-  </si>
-  <si>
-    <t>Feedback forms</t>
-  </si>
-  <si>
-    <t>Updated (final) version</t>
-  </si>
-  <si>
-    <t>Poster</t>
-  </si>
-  <si>
-    <t>Print</t>
-  </si>
-  <si>
-    <t>Final design of the board</t>
-  </si>
-  <si>
-    <t>Assembly</t>
-  </si>
-  <si>
-    <t>….</t>
-  </si>
-  <si>
-    <t>Recording</t>
-  </si>
-  <si>
-    <t>Montage</t>
-  </si>
-  <si>
-    <t>Pawns</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>Rule Book</t>
   </si>
   <si>
     <t>In the release you describe what you need to hand show at the end of the week</t>
@@ -313,15 +193,6 @@
     <t>Task describe the main chuncks of work that need to be done</t>
   </si>
   <si>
-    <t>Clear idea for our game.</t>
-  </si>
-  <si>
-    <t>A document with the game rules explained.</t>
-  </si>
-  <si>
-    <t>A document with the game concept explained</t>
-  </si>
-  <si>
     <t>Arcade</t>
   </si>
   <si>
@@ -344,6 +215,171 @@
   </si>
   <si>
     <t>Prototype</t>
+  </si>
+  <si>
+    <t>Clear idea for our game. Basic sketches.</t>
+  </si>
+  <si>
+    <t>Game sheet</t>
+  </si>
+  <si>
+    <t>Completed game sheet document.</t>
+  </si>
+  <si>
+    <t>Core mechanics</t>
+  </si>
+  <si>
+    <t>Conceptual level</t>
+  </si>
+  <si>
+    <t>Gameplay prototype</t>
+  </si>
+  <si>
+    <t>Sketched out level concept.</t>
+  </si>
+  <si>
+    <t>Document containing core mechanics.</t>
+  </si>
+  <si>
+    <t>Style sheet</t>
+  </si>
+  <si>
+    <t>Available Points</t>
+  </si>
+  <si>
+    <t>Lead Programmer = David</t>
+  </si>
+  <si>
+    <t>Lead Planner = Tim</t>
+  </si>
+  <si>
+    <t>Lead Game Design = Joey</t>
+  </si>
+  <si>
+    <t>Lead Art = Sanne</t>
+  </si>
+  <si>
+    <t>Concept phase</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>Design phase</t>
+  </si>
+  <si>
+    <t>Demo controls</t>
+  </si>
+  <si>
+    <t>Flowchart</t>
+  </si>
+  <si>
+    <t>A flowchart explaining the mechanics</t>
+  </si>
+  <si>
+    <t>Drawing/design</t>
+  </si>
+  <si>
+    <t>Technical requirements</t>
+  </si>
+  <si>
+    <t>A document containing a list of technical requirements.</t>
+  </si>
+  <si>
+    <t>A demo showing the controls.</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Playtest</t>
+  </si>
+  <si>
+    <t>Playtesting the game. Receive feedback from others.</t>
+  </si>
+  <si>
+    <t>Mock up level</t>
+  </si>
+  <si>
+    <t>Asset list</t>
+  </si>
+  <si>
+    <t>Style sheet final</t>
+  </si>
+  <si>
+    <t>Workflow design</t>
+  </si>
+  <si>
+    <t>Final art mockup</t>
+  </si>
+  <si>
+    <t>HUD design</t>
+  </si>
+  <si>
+    <t>Technical prototype</t>
+  </si>
+  <si>
+    <t>Basic level editor</t>
+  </si>
+  <si>
+    <t>Vertical slice</t>
+  </si>
+  <si>
+    <t>A document containing character and level design explaining how.</t>
+  </si>
+  <si>
+    <t>A document containing a detailed list of all the game rules.</t>
+  </si>
+  <si>
+    <t>A document showing how your going to work.</t>
+  </si>
+  <si>
+    <t>A document containing a list of all the assets</t>
+  </si>
+  <si>
+    <t>Alpha build</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Backgrounds</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Sound/music</t>
+  </si>
+  <si>
+    <t>Final menu</t>
+  </si>
+  <si>
+    <t>Play test</t>
+  </si>
+  <si>
+    <t>Production/polishing phase</t>
+  </si>
+  <si>
+    <t>Polishing</t>
+  </si>
+  <si>
+    <t>Bug fixes</t>
+  </si>
+  <si>
+    <t>Final test on arcade machine</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>A presentation showing how</t>
   </si>
 </sst>
 </file>
@@ -471,7 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +853,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1013,23 +1049,6 @@
     <xf numFmtId="168" fontId="6" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,6 +1091,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1394,16 +1432,16 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,16 +2193,16 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2856,7 +2894,7 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>3867150</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2888,14 +2926,14 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>3867150</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2926,13 +2964,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>3833813</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3440,20 +3478,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL91"/>
+  <dimension ref="A1:AM87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.25" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
@@ -3461,7 +3499,7 @@
     <col min="8" max="8" width="10.125" style="7" customWidth="1"/>
     <col min="9" max="29" width="2.625" style="46" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="13.625" style="7" customWidth="1"/>
-    <col min="31" max="31" width="7.25" style="7" customWidth="1"/>
+    <col min="31" max="31" width="10.125" style="7" customWidth="1"/>
     <col min="32" max="32" width="14.25" style="7" customWidth="1"/>
     <col min="33" max="33" width="12.125" style="53" customWidth="1"/>
     <col min="34" max="34" width="3.75" hidden="1" customWidth="1"/>
@@ -3469,54 +3507,54 @@
     <col min="36" max="36" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
+      <c r="E1" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
       <c r="AI1" s="69" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="68"/>
       <c r="AK1" s="68"/>
       <c r="AL1" s="68"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -3525,62 +3563,62 @@
       <c r="F2" s="34"/>
       <c r="G2" s="75"/>
       <c r="H2" s="78"/>
-      <c r="I2" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
+      <c r="I2" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
       <c r="AD2" s="79"/>
       <c r="AE2" s="77"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="47"/>
     </row>
-    <row r="3" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>60</v>
-      </c>
       <c r="E3" s="35" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H3" s="78" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I3" s="80">
         <v>41960</v>
@@ -3666,79 +3704,79 @@
         <v>41980</v>
       </c>
       <c r="AD3" s="79" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE3" s="77" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AF3" s="34" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AG3" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="126" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE4" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF4" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG4" s="93" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="126" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE4" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" s="86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
       <c r="B5" s="17" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -3773,13 +3811,16 @@
       <c r="AE5" s="26"/>
       <c r="AF5" s="18"/>
       <c r="AG5" s="48"/>
-    </row>
-    <row r="6" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="63">
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -3812,14 +3853,17 @@
       <c r="AE6" s="31"/>
       <c r="AF6" s="32"/>
       <c r="AG6" s="49"/>
-    </row>
-    <row r="7" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM6" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -3851,16 +3895,19 @@
       <c r="AE7" s="31"/>
       <c r="AF7" s="32"/>
       <c r="AG7" s="49"/>
-    </row>
-    <row r="8" spans="1:38" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM7" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="72"/>
@@ -3892,18 +3939,21 @@
       <c r="AE8" s="28"/>
       <c r="AF8" s="24"/>
       <c r="AG8" s="50"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H9" s="5">
         <v>30</v>
@@ -3930,7 +3980,7 @@
       <c r="AB9" s="42"/>
       <c r="AC9" s="42"/>
       <c r="AD9" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="27"/>
       <c r="AF9" s="5"/>
@@ -3938,16 +3988,18 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="73"/>
+        <v>61</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="5">
         <v>4</v>
       </c>
@@ -3973,7 +4025,7 @@
       <c r="AB10" s="42"/>
       <c r="AC10" s="42"/>
       <c r="AD10" s="5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AE10" s="27"/>
       <c r="AF10" s="5"/>
@@ -3981,18 +4033,20 @@
         <v>42689</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="73"/>
+        <v>62</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>64</v>
+      </c>
       <c r="H11" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
@@ -4016,26 +4070,26 @@
       <c r="AB11" s="42"/>
       <c r="AC11" s="42"/>
       <c r="AD11" s="5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AE11" s="27"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="51"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G12" s="73" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H12" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -4059,26 +4113,26 @@
       <c r="AB12" s="42"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="5" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AE12" s="27"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="51"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G13" s="73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H13" s="5">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
@@ -4102,23 +4156,27 @@
       <c r="AB13" s="42"/>
       <c r="AC13" s="42"/>
       <c r="AD13" s="5" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AE13" s="27"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="51">
-        <v>41963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AG13" s="51"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4</v>
+      </c>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -4140,67 +4198,65 @@
       <c r="AA14" s="42"/>
       <c r="AB14" s="42"/>
       <c r="AC14" s="42"/>
-      <c r="AD14" s="5"/>
+      <c r="AD14" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE14" s="27"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="51"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="24">
-        <v>8</v>
-      </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="50"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="51"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
@@ -4222,53 +4278,51 @@
       <c r="AA16" s="42"/>
       <c r="AB16" s="42"/>
       <c r="AC16" s="42"/>
-      <c r="AD16" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="AD16" s="5"/>
       <c r="AE16" s="27"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="51"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="5">
+      <c r="A17" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="51"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="24">
+        <v>8</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="50"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
@@ -4276,9 +4330,15 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="5"/>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
@@ -4300,92 +4360,88 @@
       <c r="AA18" s="42"/>
       <c r="AB18" s="42"/>
       <c r="AC18" s="42"/>
-      <c r="AD18" s="5"/>
+      <c r="AD18" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="AE18" s="27"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="51"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="24">
+      <c r="A19" s="65"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="51"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="24">
         <v>16</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="67"/>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="50"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="5">
-        <v>8</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="51"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="50"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
@@ -4394,10 +4450,10 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G21" s="73" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="H21" s="5">
         <v>8</v>
@@ -4423,7 +4479,9 @@
       <c r="AA21" s="42"/>
       <c r="AB21" s="42"/>
       <c r="AC21" s="42"/>
-      <c r="AD21" s="5"/>
+      <c r="AD21" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE21" s="27"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="51"/>
@@ -4435,10 +4493,10 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G22" s="73" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="H22" s="5">
         <v>8</v>
@@ -4464,7 +4522,9 @@
       <c r="AA22" s="42"/>
       <c r="AB22" s="42"/>
       <c r="AC22" s="42"/>
-      <c r="AD22" s="5"/>
+      <c r="AD22" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE22" s="27"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="51"/>
@@ -4475,9 +4535,15 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="5"/>
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="5">
+        <v>8</v>
+      </c>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
@@ -4499,51 +4565,53 @@
       <c r="AA23" s="42"/>
       <c r="AB23" s="42"/>
       <c r="AC23" s="42"/>
-      <c r="AD23" s="5"/>
+      <c r="AD23" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE23" s="27"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="51"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="24">
-        <v>48</v>
-      </c>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="50"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="73"/>
+      <c r="H24" s="5">
+        <v>4</v>
+      </c>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="51"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
@@ -4551,15 +4619,9 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="5">
-        <v>16</v>
-      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
@@ -4587,86 +4649,88 @@
       <c r="AG25" s="51"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="5">
+      <c r="A26" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="24">
+        <v>48</v>
+      </c>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="50"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="5">
         <v>16</v>
       </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="51"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="24">
-        <v>10</v>
-      </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67">
-        <v>10</v>
-      </c>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="67"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="50"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="51"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
@@ -4674,9 +4738,15 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="5"/>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="5">
+        <v>4</v>
+      </c>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
       <c r="K28" s="40"/>
@@ -4698,230 +4768,240 @@
       <c r="AA28" s="42"/>
       <c r="AB28" s="42"/>
       <c r="AC28" s="42"/>
-      <c r="AD28" s="5"/>
+      <c r="AD28" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE28" s="27"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="51"/>
     </row>
-    <row r="29" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="64"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="50"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="65"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="51"/>
+    </row>
+    <row r="31" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="63">
         <v>2</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="49"/>
-    </row>
-    <row r="30" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="49"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="51"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="50"/>
+      <c r="B31" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="49"/>
+    </row>
+    <row r="32" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="63"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="49"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="51"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="24">
+        <v>16</v>
+      </c>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="67"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="50"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="67"/>
-      <c r="AA34" s="67"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="67"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="50"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="5">
+        <v>8</v>
+      </c>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="51"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="65"/>
@@ -4929,9 +5009,15 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="5"/>
+      <c r="F35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="5">
+        <v>4</v>
+      </c>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
       <c r="K35" s="40"/>
@@ -4953,59 +5039,71 @@
       <c r="AA35" s="42"/>
       <c r="AB35" s="42"/>
       <c r="AC35" s="42"/>
-      <c r="AD35" s="5"/>
+      <c r="AD35" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE35" s="27"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="51"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="50"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2</v>
+      </c>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="51"/>
+    </row>
+    <row r="37" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="65"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="73"/>
-      <c r="H37" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="5">
+        <v>4</v>
+      </c>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
       <c r="K37" s="40"/>
@@ -5027,20 +5125,26 @@
       <c r="AA37" s="42"/>
       <c r="AB37" s="42"/>
       <c r="AC37" s="42"/>
-      <c r="AD37" s="5"/>
+      <c r="AD37" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE37" s="27"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="51"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="65"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="G38" s="73"/>
-      <c r="H38" s="5"/>
+      <c r="H38" s="5">
+        <v>4</v>
+      </c>
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
@@ -5062,12 +5166,14 @@
       <c r="AA38" s="42"/>
       <c r="AB38" s="42"/>
       <c r="AC38" s="42"/>
-      <c r="AD38" s="5"/>
+      <c r="AD38" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE38" s="27"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="51"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="65"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5103,76 +5209,86 @@
       <c r="AG39" s="51"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="51"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
-      <c r="U41" s="67"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="67"/>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="67"/>
-      <c r="AB41" s="67"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="24"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="50"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="24">
+        <v>16</v>
+      </c>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="50"/>
+    </row>
+    <row r="41" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2</v>
+      </c>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="51"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="65"/>
@@ -5181,10 +5297,12 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="G42" s="73"/>
-      <c r="H42" s="5"/>
+      <c r="H42" s="5">
+        <v>4</v>
+      </c>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
       <c r="K42" s="40"/>
@@ -5206,7 +5324,9 @@
       <c r="AA42" s="42"/>
       <c r="AB42" s="42"/>
       <c r="AC42" s="42"/>
-      <c r="AD42" s="5"/>
+      <c r="AD42" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE42" s="27"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="51"/>
@@ -5218,10 +5338,12 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G43" s="73"/>
-      <c r="H43" s="5"/>
+      <c r="H43" s="5">
+        <v>4</v>
+      </c>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
       <c r="K43" s="40"/>
@@ -5244,14 +5366,10 @@
       <c r="AB43" s="42"/>
       <c r="AC43" s="42"/>
       <c r="AD43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE43" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF43" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="5"/>
       <c r="AG43" s="51"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
@@ -5260,9 +5378,13 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G44" s="73"/>
-      <c r="H44" s="5"/>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
       <c r="K44" s="40"/>
@@ -5284,7 +5406,9 @@
       <c r="AA44" s="42"/>
       <c r="AB44" s="42"/>
       <c r="AC44" s="42"/>
-      <c r="AD44" s="5"/>
+      <c r="AD44" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE44" s="27"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="51"/>
@@ -5295,9 +5419,13 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G45" s="73"/>
-      <c r="H45" s="5"/>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
       <c r="K45" s="40"/>
@@ -5319,47 +5447,53 @@
       <c r="AA45" s="42"/>
       <c r="AB45" s="42"/>
       <c r="AC45" s="42"/>
-      <c r="AD45" s="5"/>
+      <c r="AD45" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE45" s="27"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="51"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="67"/>
-      <c r="AA46" s="67"/>
-      <c r="AB46" s="67"/>
-      <c r="AC46" s="67"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="50"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="73"/>
+      <c r="H46" s="5">
+        <v>4</v>
+      </c>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="51"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="65"/>
@@ -5367,9 +5501,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="73"/>
       <c r="H47" s="5"/>
       <c r="I47" s="40"/>
@@ -5399,41 +5531,49 @@
       <c r="AG47" s="51"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="73"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42"/>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="42"/>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="42"/>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="27"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="51"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="24">
+        <v>10</v>
+      </c>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="67"/>
+      <c r="V48" s="67">
+        <v>10</v>
+      </c>
+      <c r="W48" s="67"/>
+      <c r="X48" s="67"/>
+      <c r="Y48" s="67"/>
+      <c r="Z48" s="67"/>
+      <c r="AA48" s="67"/>
+      <c r="AB48" s="67"/>
+      <c r="AC48" s="67"/>
+      <c r="AD48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE48" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="50"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="65"/>
@@ -5470,91 +5610,93 @@
       <c r="AF49" s="5"/>
       <c r="AG49" s="51"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="67"/>
-      <c r="Z50" s="67"/>
-      <c r="AA50" s="67"/>
-      <c r="AB50" s="67"/>
-      <c r="AC50" s="67"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="50"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="42"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="42"/>
-      <c r="AA51" s="42"/>
-      <c r="AB51" s="42"/>
-      <c r="AC51" s="42"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="27"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="51"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="63">
+        <v>3</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="49"/>
+    </row>
+    <row r="51" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="64"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="67"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="67"/>
+      <c r="Y51" s="67"/>
+      <c r="Z51" s="67"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="67"/>
+      <c r="AC51" s="67"/>
+      <c r="AD51" s="24"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="24"/>
+      <c r="AG51" s="50"/>
+    </row>
+    <row r="52" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F52" s="23"/>
       <c r="G52" s="72"/>
-      <c r="H52" s="24">
-        <v>10</v>
-      </c>
+      <c r="H52" s="24"/>
       <c r="I52" s="67"/>
       <c r="J52" s="67"/>
       <c r="K52" s="67"/>
@@ -5568,9 +5710,7 @@
       <c r="S52" s="67"/>
       <c r="T52" s="67"/>
       <c r="U52" s="67"/>
-      <c r="V52" s="67">
-        <v>10</v>
-      </c>
+      <c r="V52" s="67"/>
       <c r="W52" s="67"/>
       <c r="X52" s="67"/>
       <c r="Y52" s="67"/>
@@ -5579,9 +5719,7 @@
       <c r="AB52" s="67"/>
       <c r="AC52" s="67"/>
       <c r="AD52" s="24"/>
-      <c r="AE52" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="AE52" s="28"/>
       <c r="AF52" s="24"/>
       <c r="AG52" s="50"/>
     </row>
@@ -5591,7 +5729,9 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G53" s="73"/>
       <c r="H53" s="5"/>
       <c r="I53" s="40"/>
@@ -5615,86 +5755,90 @@
       <c r="AA53" s="42"/>
       <c r="AB53" s="42"/>
       <c r="AC53" s="42"/>
-      <c r="AD53" s="5"/>
+      <c r="AD53" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE53" s="27"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="51"/>
     </row>
-    <row r="54" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63">
-        <v>3</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="32"/>
-      <c r="AE54" s="31"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="49"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="67"/>
-      <c r="Q55" s="67"/>
-      <c r="R55" s="67"/>
-      <c r="S55" s="67"/>
-      <c r="T55" s="67"/>
-      <c r="U55" s="67"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="67"/>
-      <c r="Y55" s="67"/>
-      <c r="Z55" s="67"/>
-      <c r="AA55" s="67"/>
-      <c r="AB55" s="67"/>
-      <c r="AC55" s="67"/>
-      <c r="AD55" s="24"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="24"/>
-      <c r="AG55" s="50"/>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" s="65"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="73"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="51"/>
+    </row>
+    <row r="55" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="95"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="97"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="99"/>
+      <c r="M55" s="99"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="99"/>
+      <c r="P55" s="99"/>
+      <c r="Q55" s="99"/>
+      <c r="R55" s="99"/>
+      <c r="S55" s="99"/>
+      <c r="T55" s="99"/>
+      <c r="U55" s="99"/>
+      <c r="V55" s="99"/>
+      <c r="W55" s="99"/>
+      <c r="X55" s="99"/>
+      <c r="Y55" s="99"/>
+      <c r="Z55" s="99"/>
+      <c r="AA55" s="99"/>
+      <c r="AB55" s="99"/>
+      <c r="AC55" s="99"/>
+      <c r="AD55" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE55" s="100"/>
+      <c r="AF55" s="98"/>
+      <c r="AG55" s="101"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="65"/>
@@ -5703,7 +5847,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="G56" s="73"/>
       <c r="H56" s="5"/>
@@ -5728,47 +5872,51 @@
       <c r="AA56" s="42"/>
       <c r="AB56" s="42"/>
       <c r="AC56" s="42"/>
-      <c r="AD56" s="5"/>
+      <c r="AD56" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE56" s="27"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="51"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" s="73"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="42"/>
-      <c r="X57" s="42"/>
-      <c r="Y57" s="42"/>
-      <c r="Z57" s="42"/>
-      <c r="AA57" s="42"/>
-      <c r="AB57" s="42"/>
-      <c r="AC57" s="42"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="27"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="51"/>
+    <row r="57" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="95"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" s="97"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="99"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="99"/>
+      <c r="P57" s="99"/>
+      <c r="Q57" s="99"/>
+      <c r="R57" s="99"/>
+      <c r="S57" s="99"/>
+      <c r="T57" s="99"/>
+      <c r="U57" s="99"/>
+      <c r="V57" s="99"/>
+      <c r="W57" s="99"/>
+      <c r="X57" s="99"/>
+      <c r="Y57" s="99"/>
+      <c r="Z57" s="99"/>
+      <c r="AA57" s="99"/>
+      <c r="AB57" s="99"/>
+      <c r="AC57" s="99"/>
+      <c r="AD57" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE57" s="100"/>
+      <c r="AF57" s="98"/>
+      <c r="AG57" s="101"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="65"/>
@@ -5777,7 +5925,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="G58" s="73"/>
       <c r="H58" s="5"/>
@@ -5802,7 +5950,9 @@
       <c r="AA58" s="42"/>
       <c r="AB58" s="42"/>
       <c r="AC58" s="42"/>
-      <c r="AD58" s="5"/>
+      <c r="AD58" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE58" s="27"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="51"/>
@@ -5813,7 +5963,7 @@
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
       <c r="E59" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="72"/>
@@ -5851,7 +6001,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="G60" s="73"/>
       <c r="H60" s="5"/>
@@ -5876,47 +6026,51 @@
       <c r="AA60" s="42"/>
       <c r="AB60" s="42"/>
       <c r="AC60" s="42"/>
-      <c r="AD60" s="5"/>
+      <c r="AD60" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AE60" s="27"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="51"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="67"/>
-      <c r="T61" s="67"/>
-      <c r="U61" s="67"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
-      <c r="X61" s="67"/>
-      <c r="Y61" s="67"/>
-      <c r="Z61" s="67"/>
-      <c r="AA61" s="67"/>
-      <c r="AB61" s="67"/>
-      <c r="AC61" s="67"/>
-      <c r="AD61" s="24"/>
-      <c r="AE61" s="28"/>
-      <c r="AF61" s="24"/>
-      <c r="AG61" s="50"/>
+    <row r="61" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="95"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="97"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="99"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="99"/>
+      <c r="O61" s="99"/>
+      <c r="P61" s="99"/>
+      <c r="Q61" s="99"/>
+      <c r="R61" s="99"/>
+      <c r="S61" s="99"/>
+      <c r="T61" s="99"/>
+      <c r="U61" s="99"/>
+      <c r="V61" s="99"/>
+      <c r="W61" s="99"/>
+      <c r="X61" s="99"/>
+      <c r="Y61" s="99"/>
+      <c r="Z61" s="99"/>
+      <c r="AA61" s="99"/>
+      <c r="AB61" s="99"/>
+      <c r="AC61" s="99"/>
+      <c r="AD61" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE61" s="100"/>
+      <c r="AF61" s="98"/>
+      <c r="AG61" s="101"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="65"/>
@@ -5924,9 +6078,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="73"/>
       <c r="H62" s="5"/>
       <c r="I62" s="40"/>
@@ -5955,13 +6107,13 @@
       <c r="AF62" s="5"/>
       <c r="AG62" s="51"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="64"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="72"/>
@@ -5992,266 +6144,268 @@
       <c r="AF63" s="24"/>
       <c r="AG63" s="50"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="41"/>
-      <c r="U64" s="41"/>
-      <c r="V64" s="41"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="42"/>
-      <c r="Y64" s="42"/>
-      <c r="Z64" s="42"/>
-      <c r="AA64" s="42"/>
-      <c r="AB64" s="42"/>
-      <c r="AC64" s="42"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="27"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="51"/>
+    <row r="64" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="95"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" s="97"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="99"/>
+      <c r="M64" s="99"/>
+      <c r="N64" s="99"/>
+      <c r="O64" s="99"/>
+      <c r="P64" s="99"/>
+      <c r="Q64" s="99"/>
+      <c r="R64" s="99"/>
+      <c r="S64" s="99"/>
+      <c r="T64" s="99"/>
+      <c r="U64" s="99"/>
+      <c r="V64" s="99"/>
+      <c r="W64" s="99"/>
+      <c r="X64" s="99"/>
+      <c r="Y64" s="99"/>
+      <c r="Z64" s="99"/>
+      <c r="AA64" s="99"/>
+      <c r="AB64" s="99"/>
+      <c r="AC64" s="99"/>
+      <c r="AD64" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE64" s="100"/>
+      <c r="AF64" s="98"/>
+      <c r="AG64" s="101"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
-      <c r="T65" s="67"/>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
-      <c r="X65" s="67"/>
-      <c r="Y65" s="67"/>
-      <c r="Z65" s="67"/>
-      <c r="AA65" s="67"/>
-      <c r="AB65" s="67"/>
-      <c r="AC65" s="67"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="28"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="50"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" s="73"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="41"/>
-      <c r="V66" s="41"/>
-      <c r="W66" s="42"/>
-      <c r="X66" s="42"/>
-      <c r="Y66" s="42"/>
-      <c r="Z66" s="42"/>
-      <c r="AA66" s="42"/>
-      <c r="AB66" s="42"/>
-      <c r="AC66" s="42"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="27"/>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="51"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" s="73"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="41"/>
-      <c r="U67" s="41"/>
-      <c r="V67" s="41"/>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="42"/>
-      <c r="Z67" s="42"/>
-      <c r="AA67" s="42"/>
-      <c r="AB67" s="42"/>
-      <c r="AC67" s="42"/>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="27"/>
-      <c r="AF67" s="5"/>
-      <c r="AG67" s="51"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" s="73"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="41"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="42"/>
+      <c r="AA65" s="42"/>
+      <c r="AB65" s="42"/>
+      <c r="AC65" s="42"/>
+      <c r="AD65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE65" s="27"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="51"/>
+    </row>
+    <row r="66" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="95"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="97"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="99"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="99"/>
+      <c r="M66" s="99"/>
+      <c r="N66" s="99"/>
+      <c r="O66" s="99"/>
+      <c r="P66" s="99"/>
+      <c r="Q66" s="99"/>
+      <c r="R66" s="99"/>
+      <c r="S66" s="99"/>
+      <c r="T66" s="99"/>
+      <c r="U66" s="99"/>
+      <c r="V66" s="99"/>
+      <c r="W66" s="99"/>
+      <c r="X66" s="99"/>
+      <c r="Y66" s="99"/>
+      <c r="Z66" s="99"/>
+      <c r="AA66" s="99"/>
+      <c r="AB66" s="99"/>
+      <c r="AC66" s="99"/>
+      <c r="AD66" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE66" s="100"/>
+      <c r="AF66" s="98"/>
+      <c r="AG66" s="101"/>
+    </row>
+    <row r="67" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="64"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="67"/>
+      <c r="Q67" s="67"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="67"/>
+      <c r="T67" s="67"/>
+      <c r="U67" s="67"/>
+      <c r="V67" s="67"/>
+      <c r="W67" s="67"/>
+      <c r="X67" s="67"/>
+      <c r="Y67" s="67"/>
+      <c r="Z67" s="67"/>
+      <c r="AA67" s="67"/>
+      <c r="AB67" s="67"/>
+      <c r="AC67" s="67"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="28"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="50"/>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" s="81"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="82"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="85"/>
-      <c r="J68" s="85"/>
-      <c r="K68" s="85"/>
-      <c r="L68" s="85"/>
-      <c r="M68" s="85"/>
-      <c r="N68" s="85"/>
-      <c r="O68" s="85"/>
-      <c r="P68" s="85"/>
-      <c r="Q68" s="85"/>
-      <c r="R68" s="85"/>
-      <c r="S68" s="85"/>
-      <c r="T68" s="85"/>
-      <c r="U68" s="85"/>
-      <c r="V68" s="85"/>
-      <c r="W68" s="85"/>
-      <c r="X68" s="85"/>
-      <c r="Y68" s="85"/>
-      <c r="Z68" s="85"/>
-      <c r="AA68" s="85"/>
-      <c r="AB68" s="85"/>
-      <c r="AC68" s="85"/>
-      <c r="AD68" s="84"/>
-      <c r="AE68" s="86"/>
-      <c r="AF68" s="84"/>
-      <c r="AG68" s="87"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="41"/>
-      <c r="V69" s="41"/>
-      <c r="W69" s="42"/>
-      <c r="X69" s="42"/>
-      <c r="Y69" s="42"/>
-      <c r="Z69" s="42"/>
-      <c r="AA69" s="42"/>
-      <c r="AB69" s="42"/>
-      <c r="AC69" s="42"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="27"/>
-      <c r="AF69" s="5"/>
-      <c r="AG69" s="51"/>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="24">
-        <v>10</v>
-      </c>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67"/>
-      <c r="O70" s="67"/>
-      <c r="P70" s="67"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="67"/>
-      <c r="S70" s="67"/>
-      <c r="T70" s="67"/>
-      <c r="U70" s="67"/>
-      <c r="V70" s="67"/>
-      <c r="W70" s="67"/>
-      <c r="X70" s="67"/>
-      <c r="Y70" s="67"/>
-      <c r="Z70" s="67"/>
-      <c r="AA70" s="67"/>
-      <c r="AB70" s="67"/>
-      <c r="AC70" s="67">
-        <v>10</v>
-      </c>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="50"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="42"/>
+      <c r="X68" s="42"/>
+      <c r="Y68" s="42"/>
+      <c r="Z68" s="42"/>
+      <c r="AA68" s="42"/>
+      <c r="AB68" s="42"/>
+      <c r="AC68" s="42"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="27"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="51"/>
+    </row>
+    <row r="69" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="95"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="99"/>
+      <c r="K69" s="99"/>
+      <c r="L69" s="99"/>
+      <c r="M69" s="99"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="99"/>
+      <c r="P69" s="99"/>
+      <c r="Q69" s="99"/>
+      <c r="R69" s="99"/>
+      <c r="S69" s="99"/>
+      <c r="T69" s="99"/>
+      <c r="U69" s="99"/>
+      <c r="V69" s="99"/>
+      <c r="W69" s="99"/>
+      <c r="X69" s="99"/>
+      <c r="Y69" s="99"/>
+      <c r="Z69" s="99"/>
+      <c r="AA69" s="99"/>
+      <c r="AB69" s="99"/>
+      <c r="AC69" s="99"/>
+      <c r="AD69" s="98"/>
+      <c r="AE69" s="100"/>
+      <c r="AF69" s="98"/>
+      <c r="AG69" s="101"/>
+    </row>
+    <row r="70" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="95"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="99"/>
+      <c r="M70" s="99"/>
+      <c r="N70" s="99"/>
+      <c r="O70" s="99"/>
+      <c r="P70" s="99"/>
+      <c r="Q70" s="99"/>
+      <c r="R70" s="99"/>
+      <c r="S70" s="99"/>
+      <c r="T70" s="99"/>
+      <c r="U70" s="99"/>
+      <c r="V70" s="99"/>
+      <c r="W70" s="99"/>
+      <c r="X70" s="99"/>
+      <c r="Y70" s="99"/>
+      <c r="Z70" s="99"/>
+      <c r="AA70" s="99"/>
+      <c r="AB70" s="99"/>
+      <c r="AC70" s="99"/>
+      <c r="AD70" s="98"/>
+      <c r="AE70" s="100"/>
+      <c r="AF70" s="98"/>
+      <c r="AG70" s="101"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="65"/>
@@ -6323,118 +6477,110 @@
       <c r="AF72" s="5"/>
       <c r="AG72" s="51"/>
     </row>
-    <row r="73" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="63">
-        <v>4</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="39"/>
-      <c r="AA73" s="39"/>
-      <c r="AB73" s="39"/>
-      <c r="AC73" s="39"/>
-      <c r="AD73" s="32"/>
-      <c r="AE73" s="31"/>
-      <c r="AF73" s="32"/>
-      <c r="AG73" s="49"/>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" s="65"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="41"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="27"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="51"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="67"/>
-      <c r="O74" s="67"/>
-      <c r="P74" s="67"/>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="67"/>
-      <c r="S74" s="67"/>
-      <c r="T74" s="67"/>
-      <c r="U74" s="67"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="67"/>
-      <c r="X74" s="67"/>
-      <c r="Y74" s="67"/>
-      <c r="Z74" s="67"/>
-      <c r="AA74" s="67"/>
-      <c r="AB74" s="67"/>
-      <c r="AC74" s="67"/>
-      <c r="AD74" s="24"/>
-      <c r="AE74" s="28"/>
-      <c r="AF74" s="24"/>
-      <c r="AG74" s="50"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G75" s="73"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="42"/>
-      <c r="X75" s="42"/>
-      <c r="Y75" s="42"/>
-      <c r="Z75" s="42"/>
-      <c r="AA75" s="42"/>
-      <c r="AB75" s="42"/>
-      <c r="AC75" s="42"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="27"/>
-      <c r="AF75" s="5"/>
-      <c r="AG75" s="51"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="41"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="42"/>
+      <c r="AB74" s="42"/>
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="27"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="51"/>
+    </row>
+    <row r="75" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="95"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="98"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="99"/>
+      <c r="N75" s="99"/>
+      <c r="O75" s="99"/>
+      <c r="P75" s="99"/>
+      <c r="Q75" s="99"/>
+      <c r="R75" s="99"/>
+      <c r="S75" s="99"/>
+      <c r="T75" s="99"/>
+      <c r="U75" s="99"/>
+      <c r="V75" s="99"/>
+      <c r="W75" s="99"/>
+      <c r="X75" s="99"/>
+      <c r="Y75" s="99"/>
+      <c r="Z75" s="99"/>
+      <c r="AA75" s="99"/>
+      <c r="AB75" s="99"/>
+      <c r="AC75" s="99"/>
+      <c r="AD75" s="98"/>
+      <c r="AE75" s="100"/>
+      <c r="AF75" s="98"/>
+      <c r="AG75" s="101"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="65"/>
@@ -6442,9 +6588,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="73"/>
       <c r="H76" s="5"/>
       <c r="I76" s="40"/>
@@ -6473,42 +6617,40 @@
       <c r="AF76" s="5"/>
       <c r="AG76" s="51"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G77" s="73"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="41"/>
-      <c r="T77" s="41"/>
-      <c r="U77" s="41"/>
-      <c r="V77" s="41"/>
-      <c r="W77" s="42"/>
-      <c r="X77" s="42"/>
-      <c r="Y77" s="42"/>
-      <c r="Z77" s="42"/>
-      <c r="AA77" s="42"/>
-      <c r="AB77" s="42"/>
-      <c r="AC77" s="42"/>
-      <c r="AD77" s="5"/>
-      <c r="AE77" s="27"/>
-      <c r="AF77" s="5"/>
-      <c r="AG77" s="51"/>
+    <row r="77" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="95"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="98"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="99"/>
+      <c r="K77" s="99"/>
+      <c r="L77" s="99"/>
+      <c r="M77" s="99"/>
+      <c r="N77" s="99"/>
+      <c r="O77" s="99"/>
+      <c r="P77" s="99"/>
+      <c r="Q77" s="99"/>
+      <c r="R77" s="99"/>
+      <c r="S77" s="99"/>
+      <c r="T77" s="99"/>
+      <c r="U77" s="99"/>
+      <c r="V77" s="99"/>
+      <c r="W77" s="99"/>
+      <c r="X77" s="99"/>
+      <c r="Y77" s="99"/>
+      <c r="Z77" s="99"/>
+      <c r="AA77" s="99"/>
+      <c r="AB77" s="99"/>
+      <c r="AC77" s="99"/>
+      <c r="AD77" s="98"/>
+      <c r="AE77" s="100"/>
+      <c r="AF77" s="98"/>
+      <c r="AG77" s="101"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="65"/>
@@ -6545,42 +6687,40 @@
       <c r="AF78" s="5"/>
       <c r="AG78" s="51"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" s="64"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="67"/>
-      <c r="O79" s="67"/>
-      <c r="P79" s="67"/>
-      <c r="Q79" s="67"/>
-      <c r="R79" s="67"/>
-      <c r="S79" s="67"/>
-      <c r="T79" s="67"/>
-      <c r="U79" s="67"/>
-      <c r="V79" s="67"/>
-      <c r="W79" s="67"/>
-      <c r="X79" s="67"/>
-      <c r="Y79" s="67"/>
-      <c r="Z79" s="67"/>
-      <c r="AA79" s="67"/>
-      <c r="AB79" s="67"/>
-      <c r="AC79" s="67"/>
-      <c r="AD79" s="24"/>
-      <c r="AE79" s="28"/>
-      <c r="AF79" s="24"/>
-      <c r="AG79" s="50"/>
+    <row r="79" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="95"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="96"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="98"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="99"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="99"/>
+      <c r="M79" s="99"/>
+      <c r="N79" s="99"/>
+      <c r="O79" s="99"/>
+      <c r="P79" s="99"/>
+      <c r="Q79" s="99"/>
+      <c r="R79" s="99"/>
+      <c r="S79" s="99"/>
+      <c r="T79" s="99"/>
+      <c r="U79" s="99"/>
+      <c r="V79" s="99"/>
+      <c r="W79" s="99"/>
+      <c r="X79" s="99"/>
+      <c r="Y79" s="99"/>
+      <c r="Z79" s="99"/>
+      <c r="AA79" s="99"/>
+      <c r="AB79" s="99"/>
+      <c r="AC79" s="99"/>
+      <c r="AD79" s="98"/>
+      <c r="AE79" s="100"/>
+      <c r="AF79" s="98"/>
+      <c r="AG79" s="101"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="65"/>
@@ -6617,42 +6757,40 @@
       <c r="AF80" s="5"/>
       <c r="AG80" s="51"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A81" s="64"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
-      <c r="K81" s="67"/>
-      <c r="L81" s="67"/>
-      <c r="M81" s="67"/>
-      <c r="N81" s="67"/>
-      <c r="O81" s="67"/>
-      <c r="P81" s="67"/>
-      <c r="Q81" s="67"/>
-      <c r="R81" s="67"/>
-      <c r="S81" s="67"/>
-      <c r="T81" s="67"/>
-      <c r="U81" s="67"/>
-      <c r="V81" s="67"/>
-      <c r="W81" s="67"/>
-      <c r="X81" s="67"/>
-      <c r="Y81" s="67"/>
-      <c r="Z81" s="67"/>
-      <c r="AA81" s="67"/>
-      <c r="AB81" s="67"/>
-      <c r="AC81" s="67"/>
-      <c r="AD81" s="24"/>
-      <c r="AE81" s="28"/>
-      <c r="AF81" s="24"/>
-      <c r="AG81" s="50"/>
+    <row r="81" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="95"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="98"/>
+      <c r="I81" s="99"/>
+      <c r="J81" s="99"/>
+      <c r="K81" s="99"/>
+      <c r="L81" s="99"/>
+      <c r="M81" s="99"/>
+      <c r="N81" s="99"/>
+      <c r="O81" s="99"/>
+      <c r="P81" s="99"/>
+      <c r="Q81" s="99"/>
+      <c r="R81" s="99"/>
+      <c r="S81" s="99"/>
+      <c r="T81" s="99"/>
+      <c r="U81" s="99"/>
+      <c r="V81" s="99"/>
+      <c r="W81" s="99"/>
+      <c r="X81" s="99"/>
+      <c r="Y81" s="99"/>
+      <c r="Z81" s="99"/>
+      <c r="AA81" s="99"/>
+      <c r="AB81" s="99"/>
+      <c r="AC81" s="99"/>
+      <c r="AD81" s="98"/>
+      <c r="AE81" s="100"/>
+      <c r="AF81" s="98"/>
+      <c r="AG81" s="101"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="65"/>
@@ -6689,42 +6827,40 @@
       <c r="AF82" s="5"/>
       <c r="AG82" s="51"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A83" s="64"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="67"/>
-      <c r="S83" s="67"/>
-      <c r="T83" s="67"/>
-      <c r="U83" s="67"/>
-      <c r="V83" s="67"/>
-      <c r="W83" s="67"/>
-      <c r="X83" s="67"/>
-      <c r="Y83" s="67"/>
-      <c r="Z83" s="67"/>
-      <c r="AA83" s="67"/>
-      <c r="AB83" s="67"/>
-      <c r="AC83" s="67"/>
-      <c r="AD83" s="24"/>
-      <c r="AE83" s="28"/>
-      <c r="AF83" s="24"/>
-      <c r="AG83" s="50"/>
+    <row r="83" spans="1:33" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="95"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="96"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="98"/>
+      <c r="I83" s="99"/>
+      <c r="J83" s="99"/>
+      <c r="K83" s="99"/>
+      <c r="L83" s="99"/>
+      <c r="M83" s="99"/>
+      <c r="N83" s="99"/>
+      <c r="O83" s="99"/>
+      <c r="P83" s="99"/>
+      <c r="Q83" s="99"/>
+      <c r="R83" s="99"/>
+      <c r="S83" s="99"/>
+      <c r="T83" s="99"/>
+      <c r="U83" s="99"/>
+      <c r="V83" s="99"/>
+      <c r="W83" s="99"/>
+      <c r="X83" s="99"/>
+      <c r="Y83" s="99"/>
+      <c r="Z83" s="99"/>
+      <c r="AA83" s="99"/>
+      <c r="AB83" s="99"/>
+      <c r="AC83" s="99"/>
+      <c r="AD83" s="98"/>
+      <c r="AE83" s="100"/>
+      <c r="AF83" s="98"/>
+      <c r="AG83" s="101"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="65"/>
@@ -6762,41 +6898,39 @@
       <c r="AG84" s="51"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
-      <c r="O85" s="67"/>
-      <c r="P85" s="67"/>
-      <c r="Q85" s="67"/>
-      <c r="R85" s="67"/>
-      <c r="S85" s="67"/>
-      <c r="T85" s="67"/>
-      <c r="U85" s="67"/>
-      <c r="V85" s="67"/>
-      <c r="W85" s="67"/>
-      <c r="X85" s="67"/>
-      <c r="Y85" s="67"/>
-      <c r="Z85" s="67"/>
-      <c r="AA85" s="67"/>
-      <c r="AB85" s="67"/>
-      <c r="AC85" s="67"/>
-      <c r="AD85" s="24"/>
-      <c r="AE85" s="28"/>
-      <c r="AF85" s="24"/>
-      <c r="AG85" s="50"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="41"/>
+      <c r="S85" s="41"/>
+      <c r="T85" s="41"/>
+      <c r="U85" s="41"/>
+      <c r="V85" s="41"/>
+      <c r="W85" s="42"/>
+      <c r="X85" s="42"/>
+      <c r="Y85" s="42"/>
+      <c r="Z85" s="42"/>
+      <c r="AA85" s="42"/>
+      <c r="AB85" s="42"/>
+      <c r="AC85" s="42"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="27"/>
+      <c r="AF85" s="5"/>
+      <c r="AG85" s="51"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="65"/>
@@ -6834,187 +6968,39 @@
       <c r="AG86" s="51"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A87" s="64"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="24">
-        <v>10</v>
-      </c>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="67"/>
-      <c r="P87" s="67"/>
-      <c r="Q87" s="67"/>
-      <c r="R87" s="67"/>
-      <c r="S87" s="67"/>
-      <c r="T87" s="67"/>
-      <c r="U87" s="67"/>
-      <c r="V87" s="67"/>
-      <c r="W87" s="67"/>
-      <c r="X87" s="67"/>
-      <c r="Y87" s="67"/>
-      <c r="Z87" s="67"/>
-      <c r="AA87" s="67"/>
-      <c r="AB87" s="67"/>
-      <c r="AC87" s="67">
-        <v>10</v>
-      </c>
-      <c r="AD87" s="24"/>
-      <c r="AE87" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF87" s="24"/>
-      <c r="AG87" s="50"/>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="41"/>
-      <c r="U88" s="41"/>
-      <c r="V88" s="41"/>
-      <c r="W88" s="42"/>
-      <c r="X88" s="42"/>
-      <c r="Y88" s="42"/>
-      <c r="Z88" s="42"/>
-      <c r="AA88" s="42"/>
-      <c r="AB88" s="42"/>
-      <c r="AC88" s="42"/>
-      <c r="AD88" s="5"/>
-      <c r="AE88" s="27"/>
-      <c r="AF88" s="5"/>
-      <c r="AG88" s="51"/>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
-      <c r="N89" s="40"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="41"/>
-      <c r="T89" s="41"/>
-      <c r="U89" s="41"/>
-      <c r="V89" s="41"/>
-      <c r="W89" s="42"/>
-      <c r="X89" s="42"/>
-      <c r="Y89" s="42"/>
-      <c r="Z89" s="42"/>
-      <c r="AA89" s="42"/>
-      <c r="AB89" s="42"/>
-      <c r="AC89" s="42"/>
-      <c r="AD89" s="5"/>
-      <c r="AE89" s="27"/>
-      <c r="AF89" s="5"/>
-      <c r="AG89" s="51"/>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="40"/>
-      <c r="M90" s="40"/>
-      <c r="N90" s="40"/>
-      <c r="O90" s="40"/>
-      <c r="P90" s="41"/>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="41"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="41"/>
-      <c r="V90" s="41"/>
-      <c r="W90" s="42"/>
-      <c r="X90" s="42"/>
-      <c r="Y90" s="42"/>
-      <c r="Z90" s="42"/>
-      <c r="AA90" s="42"/>
-      <c r="AB90" s="42"/>
-      <c r="AC90" s="42"/>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="27"/>
-      <c r="AF90" s="5"/>
-      <c r="AG90" s="51"/>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="74"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="44"/>
-      <c r="T91" s="44"/>
-      <c r="U91" s="44"/>
-      <c r="V91" s="44"/>
-      <c r="W91" s="45"/>
-      <c r="X91" s="45"/>
-      <c r="Y91" s="45"/>
-      <c r="Z91" s="45"/>
-      <c r="AA91" s="45"/>
-      <c r="AB91" s="45"/>
-      <c r="AC91" s="45"/>
-      <c r="AD91" s="6"/>
-      <c r="AE91" s="29"/>
-      <c r="AF91" s="6"/>
-      <c r="AG91" s="52"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="44"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="44"/>
+      <c r="V87" s="44"/>
+      <c r="W87" s="45"/>
+      <c r="X87" s="45"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="45"/>
+      <c r="AB87" s="45"/>
+      <c r="AC87" s="45"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="29"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7023,7 +7009,7 @@
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="E1:AG1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AD89:AD1048576 AD53:AD69 AD3:AD51 AD71:AD86">
+  <conditionalFormatting sqref="AD85:AD1048576 AD67:AD82 AD3:AD47 AD49:AD65">
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -7045,7 +7031,7 @@
       <formula>"ToDo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD52">
+  <conditionalFormatting sqref="AD48">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -7056,7 +7042,7 @@
       <formula>"ToDo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD70">
+  <conditionalFormatting sqref="AD66">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -7072,7 +7058,7 @@
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD88">
+  <conditionalFormatting sqref="AD84">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -7083,7 +7069,7 @@
       <formula>"ToDo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD87">
+  <conditionalFormatting sqref="AD83">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -7098,7 +7084,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE9:AF9">
       <formula1>"Eelco,Hans"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD6:AD91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD6:AD87">
       <formula1>"ToDo,Busy,Done,Trash"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7133,17 +7119,17 @@
   <sheetData>
     <row r="1" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="98" t="str">
+        <v>12</v>
+      </c>
+      <c r="C1" s="91" t="str">
         <f>Planning!E1</f>
         <v>Arcade</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D2" s="55"/>
@@ -7154,10 +7140,10 @@
       <c r="I2" s="56"/>
     </row>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="101"/>
+      <c r="B3" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="94"/>
       <c r="D3" s="55"/>
       <c r="E3" s="60"/>
       <c r="F3" s="57"/>
@@ -7167,10 +7153,10 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="60"/>
@@ -7251,7 +7237,7 @@
       </c>
       <c r="C9" s="12">
         <f>C8-SUMIF(Planning!AG:AG,B9,Planning!H:H)</f>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="60"/>
@@ -7267,7 +7253,7 @@
       </c>
       <c r="C10" s="12">
         <f>C9-SUMIF(Planning!AG:AG,B10,Planning!H:H)</f>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="60"/>
@@ -7283,7 +7269,7 @@
       </c>
       <c r="C11" s="12">
         <f>C10-SUMIF(Planning!AG:AG,B11,Planning!H:H)</f>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="60"/>
@@ -7299,7 +7285,7 @@
       </c>
       <c r="C12" s="14">
         <f>C11-SUMIF(Planning!AG:AG,B12,Planning!H:H)</f>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="60"/>
@@ -7317,10 +7303,10 @@
       <c r="I13" s="56"/>
     </row>
     <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="101"/>
+      <c r="B14" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="94"/>
       <c r="D14" s="55"/>
       <c r="E14" s="60"/>
       <c r="F14" s="57"/>
@@ -7330,10 +7316,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D15" s="55"/>
       <c r="E15" s="60"/>
@@ -7477,10 +7463,10 @@
       <c r="I24" s="56"/>
     </row>
     <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="101"/>
+      <c r="B25" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="94"/>
       <c r="D25" s="55"/>
       <c r="E25" s="60"/>
       <c r="F25" s="57"/>
@@ -7490,10 +7476,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="60"/>
@@ -7637,10 +7623,10 @@
       <c r="I35" s="56"/>
     </row>
     <row r="36" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="101"/>
+      <c r="B36" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="94"/>
       <c r="D36" s="55"/>
       <c r="E36" s="60"/>
       <c r="F36" s="57"/>
@@ -7650,10 +7636,10 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="60"/>
